--- a/list of spf trials/wwtp27d.xlsx
+++ b/list of spf trials/wwtp27d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis - Algorithm\list of spf trials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000E1F81-D74F-40E8-B0D4-05801CEA4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557AE36D-64B6-4D04-8739-04813F48F2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{CA92A36B-2F29-4746-B32A-604515DC4C97}"/>
   </bookViews>
@@ -223,13 +223,16 @@
     <sheetNames>
       <sheetName val="7sd"/>
       <sheetName val="7sdmatrix"/>
-      <sheetName val="7sdmatrixman"/>
-      <sheetName val="7sdcas"/>
-      <sheetName val="7sdcasmatrix"/>
-      <sheetName val="7sdmbr"/>
-      <sheetName val="7sdmbrmatrix"/>
+      <sheetName val="4sdcas"/>
+      <sheetName val="4sdcasmatrix"/>
+      <sheetName val="3sdmbr"/>
+      <sheetName val="3sdmbrmatrix"/>
       <sheetName val="27d"/>
       <sheetName val="27matrix"/>
+      <sheetName val="12dcas"/>
+      <sheetName val="12dcasmatrix"/>
+      <sheetName val="15dmbr"/>
+      <sheetName val="15dmbrmatrix"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -238,8 +241,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="6">
         <row r="2">
           <cell r="H2" t="str">
             <v>Type</v>
@@ -249,6 +251,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="H3"/>
           <cell r="I3" t="str">
             <v>m3/d</v>
           </cell>
@@ -477,6 +480,14 @@
             <v>2992</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="H32"/>
+          <cell r="I32"/>
+        </row>
+        <row r="33">
+          <cell r="H33"/>
+          <cell r="I33"/>
+        </row>
         <row r="34">
           <cell r="H34" t="str">
             <v>edges code in qgis</v>
@@ -485,6 +496,10 @@
             <v>distance used (m)</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="H35"/>
+          <cell r="I35"/>
+        </row>
         <row r="36">
           <cell r="H36" t="str">
             <v>d0d1</v>
@@ -3294,7 +3309,11 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8899,7 +8918,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
